--- a/data/processed/Cinemas_existants_creuse.xlsx
+++ b/data/processed/Cinemas_existants_creuse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulc\Documents\PROJET 2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulc\Documents\PROJET 2\Cinema_Project2\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50A61F9-BA7C-4158-A611-814BFC38A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F934E97-FB16-4A45-ADE6-314971CD8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="831" firstSheet="6" activeTab="7" xr2:uid="{7A77E7FC-4943-42DE-A94E-87633AA40FB4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="831" firstSheet="2" activeTab="3" xr2:uid="{7A77E7FC-4943-42DE-A94E-87633AA40FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinemas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -891,8 +890,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1174,7 +1173,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,26 +1283,21 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,16 +1307,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8"/>
@@ -4479,6 +4473,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7D6A-4947-BCBB-E12890FBD64B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4521,6 +4520,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7D6A-4947-BCBB-E12890FBD64B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4563,6 +4567,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7D6A-4947-BCBB-E12890FBD64B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9716,247 +9725,242 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="3" max="3" width="10.90625" style="52"/>
-    <col min="7" max="7" width="10.90625" style="52"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="G1"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="58" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" s="52" customFormat="1" ht="58">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53" t="s">
+      <c r="E2" s="55"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:9" ht="58">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="50" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="58">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="52">
         <v>60</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="52">
         <v>70</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="52">
         <v>20</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="52" t="s">
         <v>241</v>
       </c>
       <c r="H4">
         <f>AVERAGE(B4:C4)</f>
         <v>65</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4">
         <f>AVERAGE(D4:E4)</f>
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="58">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="52">
         <v>20</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="52">
         <v>30</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="52">
         <v>25</v>
       </c>
       <c r="E5">
         <v>35</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5">
         <f t="shared" ref="H5:H8" si="0">AVERAGE(B5:C5)</f>
         <v>25</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5">
         <f t="shared" ref="I5:I8" si="1">AVERAGE(D5:E5)</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="52">
         <v>5</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="52">
         <v>10</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="52">
         <v>40</v>
       </c>
       <c r="E6">
         <v>60</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="51">
         <v>0</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="51">
         <v>2</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <v>10</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="51">
         <v>15</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="43.5">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="51">
         <v>0</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="51">
         <v>0.1</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="51">
         <v>5</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="51">
         <v>10</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="53" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="43.5">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="50" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.5">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="52">
         <v>55</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="51" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="58">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="52">
         <v>35</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="52">
         <v>15</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>256</v>
       </c>
     </row>
@@ -10067,34 +10071,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2" ht="43.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="52">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="52">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="52">
         <v>15</v>
       </c>
     </row>
@@ -11044,8 +11048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D39A05-6ECE-468E-BA05-FFBB08D05644}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -11066,112 +11070,140 @@
         <v>200</v>
       </c>
       <c r="B2" s="16">
+        <f>D2/SUM($D$2:$E$8)</f>
+        <v>6.5776262031715257E-2</v>
+      </c>
+      <c r="C2" s="16">
+        <f>E2/SUM($D$2:$E$8)</f>
+        <v>6.402776816009971E-2</v>
+      </c>
+      <c r="D2" s="16">
         <v>7599</v>
       </c>
-      <c r="C2" s="16">
+      <c r="E2" s="16">
         <v>7397</v>
       </c>
-      <c r="E2" s="59">
-        <f>SUM(B2:C2)/SUM($B$2:$C$8)</f>
-        <v>0.12980403019181497</v>
-      </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
+        <f t="shared" ref="B3:C8" si="0">D3/SUM($D$2:$E$8)</f>
+        <v>6.4927982826674058E-2</v>
+      </c>
+      <c r="C3" s="16">
+        <f t="shared" si="0"/>
+        <v>5.7371373173602934E-2</v>
+      </c>
+      <c r="D3" s="18">
         <v>7501</v>
       </c>
-      <c r="C3" s="18">
+      <c r="E3" s="18">
         <v>6628</v>
       </c>
-      <c r="E3" s="59">
-        <f t="shared" ref="E3:E8" si="0">SUM(B3:C3)/SUM($B$2:$C$8)</f>
-        <v>0.12229935600027698</v>
-      </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="16">
+        <f t="shared" si="0"/>
+        <v>7.3670452184751753E-2</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" si="0"/>
+        <v>7.0666851326085453E-2</v>
+      </c>
+      <c r="D4" s="16">
         <v>8511</v>
       </c>
-      <c r="C4" s="16">
+      <c r="E4" s="16">
         <v>8164</v>
       </c>
-      <c r="E4" s="59">
-        <f t="shared" si="0"/>
-        <v>0.14433730351083721</v>
-      </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10206183782286546</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10276296655356278</v>
+      </c>
+      <c r="D5" s="18">
         <v>11791</v>
       </c>
-      <c r="C5" s="18">
+      <c r="E5" s="18">
         <v>11872</v>
       </c>
-      <c r="E5" s="59">
-        <f t="shared" si="0"/>
-        <v>0.20482480437642822</v>
-      </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="23" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="16">
+        <f>D6/SUM($D$2:$E$8)</f>
+        <v>0.1218405927567343</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12448064538466865</v>
+      </c>
+      <c r="D6" s="16">
         <v>14076</v>
       </c>
-      <c r="C6" s="16">
+      <c r="E6" s="16">
         <v>14381</v>
       </c>
-      <c r="E6" s="59">
-        <f t="shared" si="0"/>
-        <v>0.24632123814140294</v>
-      </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>5.2844332109964684E-2</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="0"/>
+        <v>7.4709161415414449E-2</v>
+      </c>
+      <c r="D7" s="18">
         <v>6105</v>
       </c>
-      <c r="C7" s="18">
+      <c r="E7" s="18">
         <v>8631</v>
       </c>
-      <c r="E7" s="59">
-        <f t="shared" si="0"/>
-        <v>0.12755349352537912</v>
-      </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>6.6390831659857352E-3</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8220691087874802E-2</v>
+      </c>
+      <c r="D8" s="16">
         <v>767</v>
       </c>
-      <c r="C8" s="16">
+      <c r="E8" s="16">
         <v>2105</v>
       </c>
-      <c r="E8" s="59">
-        <f t="shared" si="0"/>
-        <v>2.4859774253860534E-2</v>
-      </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11331,7 +11363,7 @@
       <c r="B2" s="26">
         <v>10288</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2">
         <f t="shared" ref="C2:C3" si="0">B2/SUM($B$2:$B$4)</f>
         <v>0.31773680471910809</v>
       </c>
@@ -11343,7 +11375,7 @@
       <c r="B3" s="15">
         <v>4813</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3">
         <f t="shared" si="0"/>
         <v>0.148645727168844</v>
       </c>
@@ -11355,7 +11387,7 @@
       <c r="B4" s="26">
         <v>17278</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4">
         <f>B4/SUM($B$2:$B$4)</f>
         <v>0.53361746811204791</v>
       </c>
@@ -11375,265 +11407,258 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="45">
         <v>7.99</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="45">
         <v>21.99</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" t="s">
         <v>231</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="45">
         <v>6.99</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="45">
         <f>C3</f>
         <v>6.99</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="45">
         <v>5.99</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>11.99</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" t="s">
         <v>231</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="45">
         <v>5.99</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="45">
         <v>13.99</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <v>6.99</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <f>C6</f>
         <v>6.99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
+      <c r="A7" t="s">
         <v>231</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <v>34.99</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="46">
         <v>45.99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" t="s">
         <v>231</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="45">
         <v>10.99</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>12.99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" t="s">
         <v>231</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="45">
         <v>6.99</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <f>C9</f>
         <v>6.99</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="45">
         <v>7.99</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <f>C10</f>
         <v>7.99</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" t="s">
         <v>231</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="45">
         <v>8.99</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="45">
         <v>13.49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" t="s">
         <v>231</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="45">
         <v>14.99</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="45">
         <v>19.989999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" t="s">
         <v>231</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="45">
         <v>5.99</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="45">
         <f>C13</f>
         <v>5.99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" t="s">
         <v>231</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>0</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="275.5">
-      <c r="A15" s="43" t="s">
+      <c r="A15" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="47">
         <v>19.899999999999999</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <v>22.9</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="43" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="43" t="s">
+      <c r="A16" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <v>23.9</v>
       </c>
-      <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="43"/>
     </row>
     <row r="33" spans="2:3" ht="15" thickBot="1">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11649,7 +11674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB42E33-6FF6-45E8-9D3B-5CCD6DFDEA30}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11660,21 +11685,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="48">
         <v>9.6061538461538429</v>
       </c>
       <c r="C2">
@@ -11682,10 +11707,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="48">
         <v>21.9</v>
       </c>
       <c r="C3">
@@ -11712,90 +11737,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="52">
+      <c r="A2">
         <v>2018</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2">
         <v>48</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="52">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3">
         <v>49</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="52">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="52">
+      <c r="A5">
         <v>2021</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="52">
+      <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6">
         <v>44</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="52">
+      <c r="A7">
         <v>2023</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7">
         <v>47</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="52">
+      <c r="A8">
         <v>2024</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8">
         <v>49</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8">
         <v>100</v>
       </c>
     </row>
